--- a/Data/ADB/CouSecConvert_ADB.xlsx
+++ b/Data/ADB/CouSecConvert_ADB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E447352E-3B54-6445-9F6B-FA80884C435D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D7E98E-245D-C34F-AF9E-B8A2F970E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="-7060" windowWidth="23040" windowHeight="40460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23040" yWindow="-7060" windowWidth="23040" windowHeight="40460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sector" sheetId="1" r:id="rId1"/>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1548,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3228C045-7E73-594D-8AF0-157410E7A513}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="184" workbookViewId="0">
+    <sheetView zoomScale="184" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
@@ -2901,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C84CB32-6466-8145-B5CC-BCC31390BCCA}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
